--- a/generated_docs/WR_89812901_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89812901_WeekEnding_081725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3941.27</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>54.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -793,7 +793,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>153.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -857,7 +857,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -889,7 +889,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -921,7 +921,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>97.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -955,7 +955,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="H23" s="16" t="n">
-        <v>2644.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89812901_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89812901_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:02 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>3292.74</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -761,7 +757,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="17">
@@ -770,7 +766,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -780,7 +776,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -789,11 +785,11 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>153.12</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +798,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>XFR-50-72-120-1B</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -812,7 +808,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -821,16 +817,16 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
@@ -839,7 +835,7 @@
       </c>
       <c r="C19" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D19" s="12" t="inlineStr">
@@ -857,7 +853,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -866,7 +862,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-1B</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -876,7 +872,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -885,30 +881,32 @@
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="n">
-        <v>60</v>
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>Point 51</t>
+        </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -917,197 +915,163 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="inlineStr">
-        <is>
-          <t>Point 51</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="inlineStr">
+      <c r="A22" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H22" s="16" t="n">
+        <v>1995.68</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/15/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B27" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="C27" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D22" s="9" t="inlineStr">
+      <c r="D27" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E22" s="9" t="inlineStr">
+      <c r="E27" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F22" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="10" t="inlineStr"/>
-      <c r="H22" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="15" t="inlineStr">
+      <c r="F27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10" t="inlineStr"/>
+      <c r="H27" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D28" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E28" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13" t="inlineStr"/>
+      <c r="H28" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H23" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/15/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G27" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H27" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C28" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10" t="inlineStr"/>
-      <c r="H28" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B29" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C29" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D29" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E29" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F29" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13" t="inlineStr"/>
-      <c r="H29" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H30" s="16" t="n">
-        <v>0</v>
+      <c r="H29" s="16" t="n">
+        <v>1297.06</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:H26"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
